--- a/Mini-projet-trey_Buchser_Joye/output/Out_Solar_Curves.xlsx
+++ b/Mini-projet-trey_Buchser_Joye/output/Out_Solar_Curves.xlsx
@@ -1090,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5136552749999955</v>
+        <v>0.001284138187499989</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.027310549999992</v>
+        <v>0.002568276374999981</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1.540965824999988</v>
+        <v>0.00385241456249997</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.458198699999996</v>
+        <v>0.00114549674999999</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>2.054621099999983</v>
+        <v>0.005136552749999959</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.9163973999999933</v>
+        <v>0.002290993499999983</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>3.885479987499974</v>
+        <v>0.009713699968749935</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1.374596099999989</v>
+        <v>0.003436490249999973</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -1245,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>5.716338875000003</v>
+        <v>0.01429084718750001</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.832794799999985</v>
+        <v>0.004581986999999963</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -1276,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>7.547197762500035</v>
+        <v>0.01886799440625009</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>3.530852449999976</v>
+        <v>0.008827131124999941</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -1307,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>9.378056650000083</v>
+        <v>0.02344514162500021</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>5.228910100000002</v>
+        <v>0.01307227525</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>11.90869288125007</v>
+        <v>0.02977173220312516</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>6.926967750000033</v>
+        <v>0.01731741937500008</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>14.43932911250005</v>
+        <v>0.03609832278125012</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>8.625025400000082</v>
+        <v>0.0215625635000002</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>16.96996534375002</v>
+        <v>0.04242491335937505</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>11.18826172500007</v>
+        <v>0.02797065431250017</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -1431,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>19.500601575</v>
+        <v>0.0487515039375</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -1443,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>13.75149805000005</v>
+        <v>0.03437874512500012</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -1456,13 +1456,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.03576870624999977</v>
+        <v>8.942176562499942e-05</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>21.86799073124999</v>
+        <v>0.05466997682812497</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -1474,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>16.31473437500002</v>
+        <v>0.04078683593750004</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -1487,13 +1487,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.07153741249999934</v>
+        <v>0.0001788435312499983</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.23537988749996</v>
+        <v>0.06058844971874989</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>18.8779707</v>
+        <v>0.04719492675</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -1518,13 +1518,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.1073061187499991</v>
+        <v>0.0002682652968749978</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>26.60276904374994</v>
+        <v>0.06650692260937485</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>21.17680859374999</v>
+        <v>0.05294202148437496</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -1549,13 +1549,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.1430748249999989</v>
+        <v>0.0003576870624999972</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>28.97015819999992</v>
+        <v>0.07242539549999981</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -1567,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>23.47564648749996</v>
+        <v>0.05868911621874989</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -1580,25 +1580,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.73894149374997</v>
+        <v>0.004347353734374925</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>31.13125341874996</v>
+        <v>0.0778281335468749</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.5244137562499902</v>
+        <v>0.001311034390624975</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>25.77448438124994</v>
+        <v>0.06443621095312485</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -1611,25 +1611,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3.3348081625</v>
+        <v>0.008337020406249999</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>33.2923486375</v>
+        <v>0.08323087159374999</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>1.0488275125</v>
+        <v>0.00262206878125</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>28.07332227499992</v>
+        <v>0.07018330568749981</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -1642,25 +1642,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4.930674831250029</v>
+        <v>0.01232668707812507</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>35.45344385625004</v>
+        <v>0.0886336096406251</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>1.57324126875001</v>
+        <v>0.003933103171875025</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>30.06023389374996</v>
+        <v>0.07515058473437491</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -1673,25 +1673,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>6.526541500000041</v>
+        <v>0.0163163537500001</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>37.61453907500004</v>
+        <v>0.09403634768750009</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>2.097655025000015</v>
+        <v>0.005244137562500039</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>32.0471455125</v>
+        <v>0.08011786378125001</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -1704,25 +1704,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>7.818166137500033</v>
+        <v>0.01954541534375008</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>38.70340528125003</v>
+        <v>0.09675851320312506</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>2.589076593750012</v>
+        <v>0.006472691484375031</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>34.03405713125004</v>
+        <v>0.0850851428281251</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -1735,25 +1735,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>9.109790775000025</v>
+        <v>0.02277447693750006</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>39.79227148750002</v>
+        <v>0.09948067871875006</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>3.080498162500009</v>
+        <v>0.007701245406250024</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>36.02096875000006</v>
+        <v>0.09005242187500015</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -1766,25 +1766,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>10.40141541250001</v>
+        <v>0.02600353853125002</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>40.88113769375001</v>
+        <v>0.102202844234375</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>3.571919731250003</v>
+        <v>0.008929799328125008</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>37.71810449375005</v>
+        <v>0.09429526123437512</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -1797,25 +1797,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>11.69304005</v>
+        <v>0.029232600125</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>41.9700039</v>
+        <v>0.10492500975</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>4.0633413</v>
+        <v>0.01015835325</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>39.41524023750003</v>
+        <v>0.09853810059375007</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -1828,25 +1828,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>13.40619507499999</v>
+        <v>0.03351548768749997</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>42.48615526875</v>
+        <v>0.106215388171875</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>4.294747793749999</v>
+        <v>0.010736869484375</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>41.11237598125001</v>
+        <v>0.102780939953125</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -1859,25 +1859,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>15.11935009999997</v>
+        <v>0.03779837524999992</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>43.00230663749999</v>
+        <v>0.10750576659375</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>4.526154287499996</v>
+        <v>0.01131538571874999</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>42.809511725</v>
+        <v>0.1070237793125</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -1890,25 +1890,25 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>16.83250512499995</v>
+        <v>0.04208126281249989</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>43.51845800624999</v>
+        <v>0.108796145015625</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>4.757560781249994</v>
+        <v>0.01189390195312499</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>43.62370215624999</v>
+        <v>0.109059255390625</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -1921,25 +1921,25 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>18.54566014999995</v>
+        <v>0.04636415037499986</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>44.03460937499999</v>
+        <v>0.1100865234375</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>4.988967274999993</v>
+        <v>0.01247241818749998</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>44.43789258749998</v>
+        <v>0.11109473146875</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -1952,25 +1952,25 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>17.98334252500001</v>
+        <v>0.04495835631250003</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>44.65286718749999</v>
+        <v>0.11163216796875</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>5.099018056249998</v>
+        <v>0.012747545140625</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>45.25208301874998</v>
+        <v>0.1131302075468749</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -1983,25 +1983,25 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>17.4210249</v>
+        <v>0.04355256225</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>45.271125</v>
+        <v>0.1131778125</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>5.2090688375</v>
+        <v>0.01302267209375</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>46.06627344999997</v>
+        <v>0.1151656836249999</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -2014,25 +2014,25 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>16.85870727499999</v>
+        <v>0.04214676818749998</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>45.88938281250001</v>
+        <v>0.11472345703125</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>5.319119618750001</v>
+        <v>0.013297799046875</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>46.19247461875</v>
+        <v>0.115481186546875</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -2045,25 +2045,25 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>16.29638964999994</v>
+        <v>0.04074097412499984</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>46.50764062499999</v>
+        <v>0.1162691015625</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>5.429170399999997</v>
+        <v>0.01357292599999999</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>46.3186757875</v>
+        <v>0.11579668946875</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -2076,25 +2076,25 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>14.37423754999996</v>
+        <v>0.03593559387499989</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>46.11231249999999</v>
+        <v>0.11528078125</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>5.317966056249998</v>
+        <v>0.013294915140625</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>46.44487695625</v>
+        <v>0.116112192390625</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -2107,25 +2107,25 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>12.45208544999998</v>
+        <v>0.03113021362499995</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>45.716984375</v>
+        <v>0.1142924609375</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>5.2067617125</v>
+        <v>0.01301690428125</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>46.57107812499999</v>
+        <v>0.1164276953125</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -2138,25 +2138,25 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>10.52993334999998</v>
+        <v>0.02632483337499995</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>45.32165625</v>
+        <v>0.113304140625</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>5.09555736875</v>
+        <v>0.012738893421875</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>46.10111230624999</v>
+        <v>0.115252780765625</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -2169,25 +2169,25 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>8.60778125</v>
+        <v>0.021519453125</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>44.926328125</v>
+        <v>0.1123158203125</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>4.984353025000001</v>
+        <v>0.0124608825625</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>45.63114648749999</v>
+        <v>0.11407786621875</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -2200,25 +2200,25 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>8.752727781249998</v>
+        <v>0.021881819453125</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>43.68918847500002</v>
+        <v>0.1092229711875</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>4.713955750000004</v>
+        <v>0.01178488937500001</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>45.16118066874999</v>
+        <v>0.112902951671875</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -2231,25 +2231,25 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>8.8976743125</v>
+        <v>0.02224418578125</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>42.45204882500001</v>
+        <v>0.1061301220625</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>4.443558475000003</v>
+        <v>0.01110889618750001</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>44.69121484999999</v>
+        <v>0.111728037125</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -2262,25 +2262,25 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>9.042620843749997</v>
+        <v>0.02260655210937499</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>41.21490917500003</v>
+        <v>0.1030372729375001</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>4.173161200000006</v>
+        <v>0.01043290300000002</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>44.15365039375001</v>
+        <v>0.110384125984375</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -2293,25 +2293,25 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>9.187567374999995</v>
+        <v>0.02296891843749999</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>39.97776952500004</v>
+        <v>0.0999444238125001</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>3.902763925000009</v>
+        <v>0.009756909812500023</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>43.6160859375</v>
+        <v>0.10904021484375</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -2324,25 +2324,25 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>8.325998893750009</v>
+        <v>0.02081499723437502</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>39.41670019375001</v>
+        <v>0.09854175048437502</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>3.444103825000005</v>
+        <v>0.008610259562500014</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>43.07852148125001</v>
+        <v>0.107696303703125</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -2355,25 +2355,25 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>7.464430412500001</v>
+        <v>0.01866107603125</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>38.85563086250001</v>
+        <v>0.09713907715625002</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>2.985443725</v>
+        <v>0.0074636093125</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>42.54095702500002</v>
+        <v>0.1063523925625001</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -2386,25 +2386,25 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>6.602861931249991</v>
+        <v>0.01650715482812498</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>38.29456153125</v>
+        <v>0.095736403828125</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>2.526783624999995</v>
+        <v>0.006316959062499987</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>40.60918651875002</v>
+        <v>0.1015229662968751</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -2417,25 +2417,25 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>5.741293449999957</v>
+        <v>0.01435323362499989</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>37.73349219999994</v>
+        <v>0.09433373049999987</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>2.068123524999983</v>
+        <v>0.005170308812499958</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>38.6774160125</v>
+        <v>0.09669354003125001</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -2448,25 +2448,25 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>4.418891068749971</v>
+        <v>0.01104722767187493</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>35.91802246874996</v>
+        <v>0.0897950561718749</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>1.551092643749989</v>
+        <v>0.003877731609374973</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>36.74564550624999</v>
+        <v>0.09186411376562496</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -2479,25 +2479,25 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>3.096488687499986</v>
+        <v>0.007741221718749965</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>34.10255273749998</v>
+        <v>0.08525638184374996</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>1.034061762499994</v>
+        <v>0.002585154406249986</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>34.81387499999995</v>
+        <v>0.08703468749999986</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -2510,25 +2510,25 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1.774086306249986</v>
+        <v>0.004435215765624966</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>32.28708300624998</v>
+        <v>0.08071770751562495</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>0.5170308812499944</v>
+        <v>0.001292577203124986</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>33.04083496249996</v>
+        <v>0.08260208740624991</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -2541,13 +2541,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.451683925</v>
+        <v>0.0011292098125</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>30.471613275</v>
+        <v>0.07617903318749999</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
@@ -2559,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>31.26779492499998</v>
+        <v>0.07816948731249995</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -2572,13 +2572,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.3387629437500012</v>
+        <v>0.000846907359375003</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>27.97757763125003</v>
+        <v>0.06994394407812507</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>29.49475488749998</v>
+        <v>0.07373688721874996</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.2258419625000012</v>
+        <v>0.000564604906250003</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>25.48354198750003</v>
+        <v>0.06370885496875006</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>27.72171485</v>
+        <v>0.069304287125</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -2634,13 +2634,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.1129209812500024</v>
+        <v>0.000282302453125006</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>22.98950634375005</v>
+        <v>0.05747376585937514</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>25.48424658750002</v>
+        <v>0.06371061646875006</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -2665,13 +2665,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>3.608224830031759e-15</v>
+        <v>9.020562075079397e-18</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>20.49547070000008</v>
+        <v>0.05123867675000021</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
@@ -2683,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>23.24677832500002</v>
+        <v>0.05811694581250006</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>18.08856908750003</v>
+        <v>0.04522142271875006</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
@@ -2714,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>21.00931006250005</v>
+        <v>0.05252327515625011</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>15.681667475</v>
+        <v>0.03920416868750001</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
@@ -2745,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>18.77184180000007</v>
+        <v>0.04692960450000017</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>13.27476586249998</v>
+        <v>0.03318691465624994</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>16.32188623125002</v>
+        <v>0.04080471557812506</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>10.86786424999994</v>
+        <v>0.02716966062499986</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
@@ -2807,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>13.8719306625</v>
+        <v>0.03467982665625</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>9.034094168749961</v>
+        <v>0.0225852354218749</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
@@ -2838,7 +2838,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>11.42197509374997</v>
+        <v>0.02855493773437494</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>7.200324087499981</v>
+        <v>0.01800081021874995</v>
       </c>
       <c r="E78" t="n">
         <v>0</v>
@@ -2869,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>8.972019524999951</v>
+        <v>0.02243004881249988</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -2888,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>5.366554006249981</v>
+        <v>0.01341638501562495</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
@@ -2900,7 +2900,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>7.440999143749968</v>
+        <v>0.01860249785937492</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>3.532783925</v>
+        <v>0.008831959812500002</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
@@ -2931,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>5.909978762499984</v>
+        <v>0.01477494690624996</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>2.64958794375001</v>
+        <v>0.006623969859375026</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>4.378958381249984</v>
+        <v>0.01094739595312496</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -2981,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>1.76639196250001</v>
+        <v>0.004415979906250023</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
@@ -2993,7 +2993,7 @@
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>2.847938</v>
+        <v>0.007119845000000001</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>0.8831959812500187</v>
+        <v>0.002207989953125047</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
@@ -3024,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>2.135953500000007</v>
+        <v>0.005339883750000019</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>2.797762022055394e-14</v>
+        <v>6.994405055138486e-17</v>
       </c>
       <c r="E84" t="n">
         <v>0</v>
@@ -3055,7 +3055,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>1.423969000000008</v>
+        <v>0.003559922500000019</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.7119845000000153</v>
+        <v>0.001779961250000038</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>2.309263891220326e-14</v>
+        <v>5.773159728050814e-17</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>

--- a/Mini-projet-trey_Buchser_Joye/output/Out_Solar_Curves.xlsx
+++ b/Mini-projet-trey_Buchser_Joye/output/Out_Solar_Curves.xlsx
@@ -1090,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.001284138187499989</v>
+        <v>0.002054621099999982</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.002568276374999981</v>
+        <v>0.00410924219999997</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.00385241456249997</v>
+        <v>0.006163863299999951</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.00114549674999999</v>
+        <v>0.001832794799999984</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.005136552749999959</v>
+        <v>0.008218484399999934</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.002290993499999983</v>
+        <v>0.003665589599999973</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.009713699968749935</v>
+        <v>0.0155419199499999</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.003436490249999973</v>
+        <v>0.005498384399999956</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -1245,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.01429084718750001</v>
+        <v>0.02286535550000001</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.004581986999999963</v>
+        <v>0.00733117919999994</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -1276,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.01886799440625009</v>
+        <v>0.03018879105000014</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.008827131124999941</v>
+        <v>0.0141234097999999</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -1307,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.02344514162500021</v>
+        <v>0.03751222660000033</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.01307227525</v>
+        <v>0.02091564040000001</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.02977173220312516</v>
+        <v>0.04763477152500026</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.01731741937500008</v>
+        <v>0.02770787100000013</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0.03609832278125012</v>
+        <v>0.05775731645000019</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0215625635000002</v>
+        <v>0.03450010160000033</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.04242491335937505</v>
+        <v>0.06787986137500007</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.02797065431250017</v>
+        <v>0.04475304690000026</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -1431,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0487515039375</v>
+        <v>0.07800240629999999</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -1443,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.03437874512500012</v>
+        <v>0.05500599220000019</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -1456,13 +1456,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>8.942176562499942e-05</v>
+        <v>0.0001430748249999991</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0.05466997682812497</v>
+        <v>0.08747196292499994</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -1474,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.04078683593750004</v>
+        <v>0.06525893750000007</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -1487,13 +1487,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.0001788435312499983</v>
+        <v>0.0002861496499999974</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0.06058844971874989</v>
+        <v>0.09694151954999981</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.04719492675</v>
+        <v>0.0755118828</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -1518,13 +1518,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.0002682652968749978</v>
+        <v>0.0004292244749999964</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.06650692260937485</v>
+        <v>0.1064110761749998</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.05294202148437496</v>
+        <v>0.08470723437499994</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -1549,13 +1549,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.0003576870624999972</v>
+        <v>0.0005722992999999954</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0.07242539549999981</v>
+        <v>0.1158806327999997</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -1567,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.05868911621874989</v>
+        <v>0.09390258594999983</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -1580,25 +1580,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.004347353734374925</v>
+        <v>0.006955765974999881</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0778281335468749</v>
+        <v>0.1245250136749998</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.001311034390624975</v>
+        <v>0.002097655024999961</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.06443621095312485</v>
+        <v>0.1030979375249998</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -1611,25 +1611,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.008337020406249999</v>
+        <v>0.01333923265</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.08323087159374999</v>
+        <v>0.13316939455</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.00262206878125</v>
+        <v>0.00419531005</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.07018330568749981</v>
+        <v>0.1122932890999997</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -1642,25 +1642,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.01232668707812507</v>
+        <v>0.01972269932500012</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0886336096406251</v>
+        <v>0.1418137754250001</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.003933103171875025</v>
+        <v>0.00629296507500004</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.07515058473437491</v>
+        <v>0.1202409355749998</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -1673,25 +1673,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.0163163537500001</v>
+        <v>0.02610616600000016</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.09403634768750009</v>
+        <v>0.1504581563000001</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.005244137562500039</v>
+        <v>0.008390620100000062</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.08011786378125001</v>
+        <v>0.12818858205</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -1704,25 +1704,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.01954541534375008</v>
+        <v>0.03127266455000013</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.09675851320312506</v>
+        <v>0.1548136211250001</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.006472691484375031</v>
+        <v>0.01035630637500005</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0850851428281251</v>
+        <v>0.1361362285250002</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -1735,25 +1735,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.02277447693750006</v>
+        <v>0.0364391631000001</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0.09948067871875006</v>
+        <v>0.1591690859500001</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.007701245406250024</v>
+        <v>0.01232199265000004</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.09005242187500015</v>
+        <v>0.1440838750000002</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -1766,25 +1766,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.02600353853125002</v>
+        <v>0.04160566165000004</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.102202844234375</v>
+        <v>0.163524550775</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.008929799328125008</v>
+        <v>0.01428767892500001</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.09429526123437512</v>
+        <v>0.1508724179750002</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -1797,25 +1797,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.029232600125</v>
+        <v>0.0467721602</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.10492500975</v>
+        <v>0.1678800156</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.01015835325</v>
+        <v>0.0162533652</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.09853810059375007</v>
+        <v>0.1576609609500001</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -1828,25 +1828,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.03351548768749997</v>
+        <v>0.05362478029999995</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0.106215388171875</v>
+        <v>0.169944621075</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.010736869484375</v>
+        <v>0.01717899117499999</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.102780939953125</v>
+        <v>0.164449503925</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -1859,25 +1859,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.03779837524999992</v>
+        <v>0.06047740039999987</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.10750576659375</v>
+        <v>0.1720092265499999</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.01131538571874999</v>
+        <v>0.01810461714999998</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.1070237793125</v>
+        <v>0.1712380469</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -1890,25 +1890,25 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.04208126281249989</v>
+        <v>0.06733002049999982</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>0.108796145015625</v>
+        <v>0.174073832025</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.01189390195312499</v>
+        <v>0.01903024312499997</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.109059255390625</v>
+        <v>0.174494808625</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -1921,25 +1921,25 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.04636415037499986</v>
+        <v>0.07418264059999978</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>0.1100865234375</v>
+        <v>0.1761384374999999</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.01247241818749998</v>
+        <v>0.01995586909999997</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.11109473146875</v>
+        <v>0.1777515703499999</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -1952,25 +1952,25 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.04495835631250003</v>
+        <v>0.07193337010000005</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>0.11163216796875</v>
+        <v>0.17861146875</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>0.012747545140625</v>
+        <v>0.02039607222499999</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.1131302075468749</v>
+        <v>0.1810083320749999</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -1983,25 +1983,25 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.04355256225</v>
+        <v>0.06968409959999999</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0.1131778125</v>
+        <v>0.1810845</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0.01302267209375</v>
+        <v>0.02083627535</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.1151656836249999</v>
+        <v>0.1842650937999999</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -2014,25 +2014,25 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.04214676818749998</v>
+        <v>0.06743482909999997</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>0.11472345703125</v>
+        <v>0.18355753125</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.013297799046875</v>
+        <v>0.021276478475</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.115481186546875</v>
+        <v>0.184769898475</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -2045,25 +2045,25 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.04074097412499984</v>
+        <v>0.06518555859999975</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>0.1162691015625</v>
+        <v>0.1860305624999999</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>0.01357292599999999</v>
+        <v>0.02171668159999999</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.11579668946875</v>
+        <v>0.18527470315</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -2076,25 +2076,25 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.03593559387499989</v>
+        <v>0.05749695019999983</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>0.11528078125</v>
+        <v>0.18444925</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>0.013294915140625</v>
+        <v>0.02127186422499999</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.116112192390625</v>
+        <v>0.185779507825</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -2107,25 +2107,25 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.03113021362499995</v>
+        <v>0.04980834179999991</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>0.1142924609375</v>
+        <v>0.1828679375</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.01301690428125</v>
+        <v>0.02082704685</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1164276953125</v>
+        <v>0.1862843124999999</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -2138,25 +2138,25 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.02632483337499995</v>
+        <v>0.04211973339999991</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>0.113304140625</v>
+        <v>0.181286625</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>0.012738893421875</v>
+        <v>0.020382229475</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.115252780765625</v>
+        <v>0.184404449225</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -2169,25 +2169,25 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.021519453125</v>
+        <v>0.034431125</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>0.1123158203125</v>
+        <v>0.1797053125</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0124608825625</v>
+        <v>0.0199374121</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.11407786621875</v>
+        <v>0.1825245859499999</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -2200,25 +2200,25 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.021881819453125</v>
+        <v>0.03501091112499999</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>0.1092229711875</v>
+        <v>0.1747567539000001</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>0.01178488937500001</v>
+        <v>0.01885582300000001</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.112902951671875</v>
+        <v>0.180644722675</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -2231,25 +2231,25 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.02224418578125</v>
+        <v>0.03559069725</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>0.1061301220625</v>
+        <v>0.1698081953</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>0.01110889618750001</v>
+        <v>0.01777423390000001</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.111728037125</v>
+        <v>0.1787648594</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -2262,25 +2262,25 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.02260655210937499</v>
+        <v>0.03617048337499999</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>0.1030372729375001</v>
+        <v>0.1648596367000001</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>0.01043290300000002</v>
+        <v>0.01669264480000002</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.110384125984375</v>
+        <v>0.176614601575</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -2293,25 +2293,25 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.02296891843749999</v>
+        <v>0.03675026949999998</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0999444238125001</v>
+        <v>0.1599110781000002</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>0.009756909812500023</v>
+        <v>0.01561105570000004</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.10904021484375</v>
+        <v>0.17446434375</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -2324,25 +2324,25 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.02081499723437502</v>
+        <v>0.03330399557500004</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>0.09854175048437502</v>
+        <v>0.157666800775</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>0.008610259562500014</v>
+        <v>0.01377641530000002</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.107696303703125</v>
+        <v>0.1723140859250001</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -2355,25 +2355,25 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.01866107603125</v>
+        <v>0.02985772165</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>0.09713907715625002</v>
+        <v>0.15542252345</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0074636093125</v>
+        <v>0.0119417749</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.1063523925625001</v>
+        <v>0.1701638281000001</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -2386,25 +2386,25 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.01650715482812498</v>
+        <v>0.02641144772499996</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>0.095736403828125</v>
+        <v>0.153178246125</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>0.006316959062499987</v>
+        <v>0.01010713449999998</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.1015229662968751</v>
+        <v>0.1624367460750001</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -2417,25 +2417,25 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.01435323362499989</v>
+        <v>0.02296517379999983</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>0.09433373049999987</v>
+        <v>0.1509339687999998</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.005170308812499958</v>
+        <v>0.008272494099999934</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.09669354003125001</v>
+        <v>0.15470966405</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -2448,25 +2448,25 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.01104722767187493</v>
+        <v>0.01767556427499988</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0897950561718749</v>
+        <v>0.1436720898749998</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>0.003877731609374973</v>
+        <v>0.006204370574999956</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.09186411376562496</v>
+        <v>0.1469825820249999</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -2479,25 +2479,25 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.007741221718749965</v>
+        <v>0.01238595474999994</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>0.08525638184374996</v>
+        <v>0.1364102109499999</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>0.002585154406249986</v>
+        <v>0.004136247049999977</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.08703468749999986</v>
+        <v>0.1392554999999998</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -2510,25 +2510,25 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.004435215765624966</v>
+        <v>0.007096345224999945</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>0.08071770751562495</v>
+        <v>0.1291483320249999</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>0.001292577203124986</v>
+        <v>0.002068123524999978</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.08260208740624991</v>
+        <v>0.1321633398499998</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -2541,13 +2541,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.0011292098125</v>
+        <v>0.0018067357</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>0.07617903318749999</v>
+        <v>0.1218864531</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
@@ -2559,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.07816948731249995</v>
+        <v>0.1250711796999999</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -2572,13 +2572,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.000846907359375003</v>
+        <v>0.001355051775000005</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>0.06994394407812507</v>
+        <v>0.1119103105250001</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.07373688721874996</v>
+        <v>0.1179790195499999</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.000564604906250003</v>
+        <v>0.0009033678500000048</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>0.06370885496875006</v>
+        <v>0.1019341679500001</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>0.069304287125</v>
+        <v>0.1108868594</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -2634,13 +2634,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.000282302453125006</v>
+        <v>0.0004516839250000095</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>0.05747376585937514</v>
+        <v>0.09195802537500021</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.06371061646875006</v>
+        <v>0.1019369863500001</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -2665,13 +2665,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>9.020562075079397e-18</v>
+        <v>1.443289932012704e-17</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>0.05123867675000021</v>
+        <v>0.08198188280000034</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
@@ -2683,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.05811694581250006</v>
+        <v>0.09298711330000008</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>0.04522142271875006</v>
+        <v>0.07235427635000009</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
@@ -2714,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.05252327515625011</v>
+        <v>0.08403724025000017</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>0.03920416868750001</v>
+        <v>0.0627266699</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
@@ -2745,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.04692960450000017</v>
+        <v>0.07508736720000027</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>0.03318691465624994</v>
+        <v>0.0530990634499999</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.04080471557812506</v>
+        <v>0.06528754492500008</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>0.02716966062499986</v>
+        <v>0.04347145699999977</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
@@ -2807,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.03467982665625</v>
+        <v>0.05548772264999999</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0225852354218749</v>
+        <v>0.03613637667499985</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
@@ -2838,7 +2838,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.02855493773437494</v>
+        <v>0.0456879003749999</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>0.01800081021874995</v>
+        <v>0.02880129634999992</v>
       </c>
       <c r="E78" t="n">
         <v>0</v>
@@ -2869,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.02243004881249988</v>
+        <v>0.0358880780999998</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -2888,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>0.01341638501562495</v>
+        <v>0.02146621602499992</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
@@ -2900,7 +2900,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.01860249785937492</v>
+        <v>0.02976399657499987</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>0.008831959812500002</v>
+        <v>0.0141311357</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
@@ -2931,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.01477494690624996</v>
+        <v>0.02363991504999993</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>0.006623969859375026</v>
+        <v>0.01059835177500004</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.01094739595312496</v>
+        <v>0.01751583352499993</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -2981,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>0.004415979906250023</v>
+        <v>0.007065567850000037</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
@@ -2993,7 +2993,7 @@
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.007119845000000001</v>
+        <v>0.011391752</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>0.002207989953125047</v>
+        <v>0.003532783925000075</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
@@ -3024,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.005339883750000019</v>
+        <v>0.00854381400000003</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>6.994405055138486e-17</v>
+        <v>1.119104808822158e-16</v>
       </c>
       <c r="E84" t="n">
         <v>0</v>
@@ -3055,7 +3055,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.003559922500000019</v>
+        <v>0.00569587600000003</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.001779961250000038</v>
+        <v>0.002847938000000062</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>5.773159728050814e-17</v>
+        <v>9.237055564881302e-17</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
